--- a/students.xlsx
+++ b/students.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
